--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,31 +40,40 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>worse</t>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>insane</t>
   </si>
   <si>
     <t>dangerous</t>
@@ -73,16 +82,16 @@
     <t>stupid</t>
   </si>
   <si>
-    <t>insane</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>disturbing</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
+    <t>scary</t>
   </si>
   <si>
     <t>hate</t>
@@ -94,54 +103,42 @@
     <t>sick</t>
   </si>
   <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>shocking</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>frightening</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fucked</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -154,18 +151,18 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
+    <t>happy</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
@@ -175,28 +172,37 @@
     <t>important</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>first</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
+    <t>watch</t>
+  </si>
+  <si>
     <t>media</t>
-  </si>
-  <si>
-    <t>netflix</t>
   </si>
   <si>
     <t>…</t>
@@ -560,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -679,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9615384615384616</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -729,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -779,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.875</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8939393939393939</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C9">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.6</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8888888888888888</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10">
         <v>0.5862068965517241</v>
@@ -1029,7 +1035,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -1047,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.5600000000000001</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8421052631578947</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.5166666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8333333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,16 +1156,16 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.3888888888888889</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.2592592592592592</v>
+        <v>0.5</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,7 +1235,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7647058823529411</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -1247,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.2121212121212121</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="L15">
         <v>7</v>
@@ -1271,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1285,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.1458333333333333</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="L16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1335,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5625</v>
+        <v>0.65</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>0.1016949152542373</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L17">
         <v>6</v>
@@ -1371,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,7 +1385,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -1397,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>0.06830601092896176</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L18">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1023</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,13 +1435,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1447,31 +1453,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19">
+        <v>0.09230769230769231</v>
+      </c>
+      <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>59</v>
-      </c>
-      <c r="K19">
-        <v>0.01355421686746988</v>
-      </c>
-      <c r="L19">
-        <v>9</v>
-      </c>
-      <c r="M19">
-        <v>9</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>655</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1479,13 +1485,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20">
-        <v>0.01296296296296296</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="L20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1521,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>533</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1532,10 +1538,10 @@
         <v>0.5</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,19 +1553,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21">
-        <v>0.006336405529953917</v>
+        <v>0.07012750455373407</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="M21">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1571,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1725</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1579,13 +1585,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4927536231884058</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1597,7 +1603,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>70</v>
+        <v>6</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22">
+        <v>0.01461038961038961</v>
+      </c>
+      <c r="L22">
+        <v>9</v>
+      </c>
+      <c r="M22">
+        <v>9</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1605,7 +1635,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -1623,7 +1653,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23">
+        <v>0.01204819277108434</v>
+      </c>
+      <c r="L23">
+        <v>8</v>
+      </c>
+      <c r="M23">
+        <v>8</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>656</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1651,19 +1705,43 @@
       <c r="H24">
         <v>7</v>
       </c>
+      <c r="J24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24">
+        <v>0.00576036866359447</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>10</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1726</v>
+      </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4285714285714285</v>
+        <v>0.4375</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1675,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1683,13 +1761,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4117647058823529</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1701,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1709,13 +1787,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4042553191489361</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C27">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1727,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1735,13 +1813,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.391304347826087</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1753,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1761,13 +1839,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.375</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1787,13 +1865,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3461538461538461</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1813,13 +1891,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3428571428571429</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1831,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1839,13 +1917,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3157894736842105</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1857,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1865,13 +1943,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2916666666666667</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1883,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1891,13 +1969,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2857142857142857</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1909,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1917,13 +1995,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2564102564102564</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1935,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1943,13 +2021,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2142857142857143</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1961,33 +2039,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.1153846153846154</v>
-      </c>
-      <c r="C37">
-        <v>9</v>
-      </c>
-      <c r="D37">
-        <v>9</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
